--- a/Auswertung Dozentenbefragung.xlsx
+++ b/Auswertung Dozentenbefragung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhsuedwf-my.sharepoint.com/personal/kai_puetter_fhsuedwf_onmicrosoft_com/Documents/Studium/Master/WS2122/Agiles Project Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="150" documentId="8_{FDA3AAEB-4A32-49F0-83AD-153063FA8DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB95C809-0839-4146-89BF-286C03C45C12}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="8_{FDA3AAEB-4A32-49F0-83AD-153063FA8DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{951FD398-4CBC-4A9C-A452-8F84BC61327B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{98A36844-880C-44F3-A164-98BDE2167251}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98A36844-880C-44F3-A164-98BDE2167251}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>keine Antwort</t>
+  </si>
+  <si>
+    <t>Thilo Skrotzki</t>
+  </si>
+  <si>
+    <t>ich musste etwas länger über Ihr Anliegen nachdenken und bin nach wie vor etwas unschlüssig bei der Antwort. Ich halte meine persönliche Erreichbarkeit für die Studierenden nicht für kompliziert. Zumindest habe ich nie derartige Rückmeldungen während meiner Zeit als Prüfungsausschussvorsitzender oder Studiendekan erhalten. Für mich sind auch Mailanfragen nicht störend, sondern eher erwünscht, weil ich dann die gesamte Terminkoordination viel besser im Überblick habe und keine Anfrage vergesse. Die möglichen Ansprechzeiten für ad hoc Gesprächswünsche sind m.M. nach auch einsehbar, VPIS gibt die Anwesenheit an der Hochschule an, natürlich im Rahmen der Lehrveranstaltungen. Die Antwort auf Ihre Frage wäre also "Ja" + 10 Min, weil ich sinngemäß schreiben würde " Tage laut VPIS Vorlesungsplan und nach Vereinbarung". Meine Zweifel sind: Wenn es Probleme mit der Erreichbarkeit von Lehrenden gibt, dann wird meiner Erfahrung nach solch ein Tool das nur wenig ändern. Ich möchte aber Ihre Verbesserungsansätze nicht im Keim ersticken.</t>
   </si>
 </sst>
 </file>
@@ -666,7 +672,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
@@ -902,6 +908,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8320-480E-A0DD-9A53AFC6659A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -921,6 +932,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8320-480E-A0DD-9A53AFC6659A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -940,6 +956,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8320-480E-A0DD-9A53AFC6659A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1036,13 +1057,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1353,7 +1374,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -3965,8 +3986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076AD302-5446-4ABA-B0BD-F469C50446DA}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4269,12 +4290,22 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+    <row r="19" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -4363,7 +4394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B7EE38-D0E7-4567-B23A-071C958B78D9}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -4378,7 +4409,7 @@
       </c>
       <c r="B1">
         <f>COUNTIF(Tabelle1!B:B,Tabelle2!A1)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -4405,7 +4436,7 @@
       </c>
       <c r="B7">
         <f>COUNTIF(Tabelle1!C:C,Tabelle2!A7)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -4423,7 +4454,7 @@
       </c>
       <c r="B9">
         <f>53-B7-B8</f>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4513,7 +4544,7 @@
       </c>
       <c r="B20">
         <f>COUNTIF(Tabelle1!D:D,Tabelle2!A20)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
